--- a/VerifyData.xlsx
+++ b/VerifyData.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282C88DC-C258-4F02-AEE9-F1BC271C5D8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE074D7F-2963-4544-8255-B410865896B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36" yWindow="744" windowWidth="22584" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="456" yWindow="876" windowWidth="22584" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Sequenza</t>
   </si>
@@ -31,9 +37,6 @@
     <t>Pi Esatto</t>
   </si>
   <si>
-    <t>Verifico la correttezza del calcolo del software per le sequenze di tipi di crimini nel caso del 2000 record, con r = 0.01 e t = 2</t>
-  </si>
-  <si>
     <t>Aggravated Assault</t>
   </si>
   <si>
@@ -97,9 +100,6 @@
     <t>Robb, Larceny, Res. Burgl</t>
   </si>
   <si>
-    <t>Auto T, Agg, Ass, Robb</t>
-  </si>
-  <si>
     <t>Aggr. Ass, Auto T, Resid. Burgl</t>
   </si>
   <si>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t>Larc, Auto T, Aggr. Ass, Robbery</t>
+  </si>
+  <si>
+    <t>Pi dizionario Version</t>
+  </si>
+  <si>
+    <t>Auto T, Agg. Ass, Robb</t>
+  </si>
+  <si>
+    <t>Valori corretti</t>
+  </si>
+  <si>
+    <t>Verifico la correttezza del calcolo del software per le sequenze di tipi di crimini nel caso del 2130 record (2018 part One), con r = 0.01 e t = 2</t>
   </si>
 </sst>
 </file>
@@ -165,11 +177,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,39 +463,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I29"/>
+  <dimension ref="B1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -493,15 +513,22 @@
       <c r="F3">
         <v>290</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>290</v>
+      </c>
+      <c r="H3" t="b">
+        <f>IF(AND(E3=F3, F3=G3), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -511,13 +538,20 @@
       <c r="F4">
         <v>970</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>970</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ref="H4:H29" si="0">IF(AND(E4=F4, F4=G4), TRUE, FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -527,13 +561,20 @@
       <c r="F5">
         <v>352</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>352</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -543,13 +584,20 @@
       <c r="F6">
         <v>145</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>145</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -559,10 +607,17 @@
       <c r="F7">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>146</v>
+      </c>
+      <c r="H7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -572,10 +627,17 @@
       <c r="F8">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>161</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -585,10 +647,17 @@
       <c r="F9">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>44</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -598,10 +667,17 @@
       <c r="F10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -611,10 +687,17 @@
       <c r="F11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -624,10 +707,17 @@
       <c r="F12">
         <v>0.99378881987577605</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0.99378881987577605</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -637,10 +727,17 @@
       <c r="F13">
         <v>0.71428571428571397</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -650,10 +747,17 @@
       <c r="F14">
         <v>0.26206896551724101</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>0.26206896551724101</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -663,10 +767,17 @@
       <c r="F15">
         <v>8.6956521739130405E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>8.6956521739130405E-2</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -676,10 +787,17 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -689,10 +807,17 @@
       <c r="F17">
         <v>0.99310344827586206</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>0.99310344827586206</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -702,10 +827,17 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -715,10 +847,17 @@
       <c r="F19">
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -728,10 +867,17 @@
       <c r="F20">
         <v>0.90412371134020597</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>0.90412371134020597</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -741,10 +887,17 @@
       <c r="F21">
         <v>0.90412371134020597</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>0.90412371134020597</v>
+      </c>
+      <c r="H21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -754,10 +907,17 @@
       <c r="F22">
         <v>0.90412371134020597</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>0.90412371134020597</v>
+      </c>
+      <c r="H22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -767,10 +927,17 @@
       <c r="F23">
         <v>0.96206896551724097</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0.96206896551724097</v>
+      </c>
+      <c r="H23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -780,10 +947,17 @@
       <c r="F24">
         <v>0.89041095890410904</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0.89041095890410904</v>
+      </c>
+      <c r="H24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -793,10 +967,17 @@
       <c r="F25">
         <v>0.71428571428571397</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="H25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -806,10 +987,17 @@
       <c r="F26">
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="H26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -819,10 +1007,17 @@
       <c r="F27">
         <v>0.96206896551724097</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>0.96206896551724097</v>
+      </c>
+      <c r="H27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -832,10 +1027,17 @@
       <c r="F28">
         <v>0.902061855670103</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0.902061855670103</v>
+      </c>
+      <c r="H28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -845,9 +1047,29 @@
       <c r="F29">
         <v>0.96206896551724097</v>
       </c>
+      <c r="G29">
+        <v>0.96206896551724097</v>
+      </c>
+      <c r="H29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
@@ -864,19 +1086,6 @@
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
